--- a/n = 10, the third method/BestAnswer2.xlsx
+++ b/n = 10, the third method/BestAnswer2.xlsx
@@ -13,6 +13,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 8" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +436,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-6200</v>
+        <v>14200</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Joaquin Alexander</t>
+          <t>Florence Vanduser</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -560,14 +563,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Karen Head</t>
+          <t>Steven Kling</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -622,19 +625,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patricia Collette</t>
+          <t>Rosemary Osteen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Janet Eddinger</t>
+          <t>Patricia Paige</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -689,19 +692,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mark Scott</t>
+          <t>Patricia Collette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cynthia Franklin</t>
+          <t>Lucinda Peter</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -756,19 +759,220 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Silvia Evans</t>
+          <t>Mark Scott</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Linda Miller</t>
+          <t>Jill Dennehy</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Pair</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PatientName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DonorName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Compatibility</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Silvia Evans</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Joaquin Alexander</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Pair</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PatientName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DonorName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Compatibility</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Irene Gallegos</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Breanna Cunningham</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Pair</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PatientName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DonorName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Compatibility</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Charles Pieper</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Karen Head</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
